--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H2">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I2">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J2">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N2">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q2">
-        <v>8.007332830356667</v>
+        <v>6.417842040138332</v>
       </c>
       <c r="R2">
-        <v>72.06599547321001</v>
+        <v>57.760578361245</v>
       </c>
       <c r="S2">
-        <v>0.0002412041106686809</v>
+        <v>0.000230237725637584</v>
       </c>
       <c r="T2">
-        <v>0.0002412041106686809</v>
+        <v>0.0002302377256375841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H3">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I3">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J3">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.093691</v>
       </c>
       <c r="O3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q3">
-        <v>0.8843381685406667</v>
+        <v>1.098083473036333</v>
       </c>
       <c r="R3">
-        <v>7.959043516866</v>
+        <v>9.882751257327</v>
       </c>
       <c r="S3">
-        <v>2.663883292880687E-05</v>
+        <v>3.939334122138278E-05</v>
       </c>
       <c r="T3">
-        <v>2.663883292880688E-05</v>
+        <v>3.939334122138278E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H4">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I4">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J4">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N4">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q4">
-        <v>3772.535506016794</v>
+        <v>3629.993223705817</v>
       </c>
       <c r="R4">
-        <v>33952.81955415114</v>
+        <v>32669.93901335236</v>
       </c>
       <c r="S4">
-        <v>0.1136397213620345</v>
+        <v>0.1302246734461316</v>
       </c>
       <c r="T4">
-        <v>0.1136397213620345</v>
+        <v>0.1302246734461316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H5">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I5">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J5">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N5">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q5">
-        <v>1.51564826305</v>
+        <v>1.706259813339333</v>
       </c>
       <c r="R5">
-        <v>13.64083436745</v>
+        <v>15.356338320054</v>
       </c>
       <c r="S5">
-        <v>4.565572571050755E-05</v>
+        <v>6.121144402014438E-05</v>
       </c>
       <c r="T5">
-        <v>4.565572571050756E-05</v>
+        <v>6.121144402014439E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H6">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I6">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J6">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N6">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O6">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P6">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q6">
-        <v>4126.573025269768</v>
+        <v>2601.811727973953</v>
       </c>
       <c r="R6">
-        <v>37139.15722742791</v>
+        <v>23416.30555176557</v>
       </c>
       <c r="S6">
-        <v>0.124304359236336</v>
+        <v>0.09333903998251156</v>
       </c>
       <c r="T6">
-        <v>0.124304359236336</v>
+        <v>0.09333903998251156</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I7">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J7">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N7">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q7">
-        <v>9.107927877621668</v>
+        <v>5.879003797871666</v>
       </c>
       <c r="R7">
-        <v>81.97135089859501</v>
+        <v>52.911034180845</v>
       </c>
       <c r="S7">
-        <v>0.0002743572285927281</v>
+        <v>0.0002109071016349782</v>
       </c>
       <c r="T7">
-        <v>0.0002743572285927281</v>
+        <v>0.0002109071016349783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I8">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J8">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.093691</v>
       </c>
       <c r="O8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q8">
         <v>1.005889030609667</v>
@@ -948,10 +948,10 @@
         <v>9.053001275487</v>
       </c>
       <c r="S8">
-        <v>3.030029776454029E-05</v>
+        <v>3.608589946635271E-05</v>
       </c>
       <c r="T8">
-        <v>3.030029776454029E-05</v>
+        <v>3.608589946635271E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I9">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J9">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N9">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q9">
-        <v>4291.064457106804</v>
+        <v>3325.221128059258</v>
       </c>
       <c r="R9">
-        <v>38619.58011396123</v>
+        <v>29926.99015253332</v>
       </c>
       <c r="S9">
-        <v>0.129259318692805</v>
+        <v>0.1192910864708511</v>
       </c>
       <c r="T9">
-        <v>0.129259318692805</v>
+        <v>0.1192910864708511</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I10">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J10">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N10">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q10">
-        <v>1.723971684475</v>
+        <v>1.563003243152667</v>
       </c>
       <c r="R10">
-        <v>15.515745160275</v>
+        <v>14.067029188374</v>
       </c>
       <c r="S10">
-        <v>5.193103194053918E-05</v>
+        <v>5.607216718906362E-05</v>
       </c>
       <c r="T10">
-        <v>5.193103194053918E-05</v>
+        <v>5.607216718906363E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I11">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J11">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N11">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O11">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P11">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q11">
-        <v>4693.763865217276</v>
+        <v>2383.365145860806</v>
       </c>
       <c r="R11">
-        <v>42243.87478695549</v>
+        <v>21450.28631274725</v>
       </c>
       <c r="S11">
-        <v>0.1413897939281854</v>
+        <v>0.08550234909412839</v>
       </c>
       <c r="T11">
-        <v>0.1413897939281855</v>
+        <v>0.08550234909412839</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H12">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I12">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J12">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N12">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q12">
-        <v>5.378670782482778</v>
+        <v>9.406335791017778</v>
       </c>
       <c r="R12">
-        <v>48.408037042345</v>
+        <v>84.65702211916</v>
       </c>
       <c r="S12">
-        <v>0.0001620211786064335</v>
+        <v>0.0003374488411467132</v>
       </c>
       <c r="T12">
-        <v>0.0001620211786064335</v>
+        <v>0.0003374488411467133</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H13">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I13">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J13">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.093691</v>
       </c>
       <c r="O13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q13">
-        <v>0.5940259971374444</v>
+        <v>1.609410423215111</v>
       </c>
       <c r="R13">
-        <v>5.346233974237</v>
+        <v>14.484693808936</v>
       </c>
       <c r="S13">
-        <v>1.789378753065164E-05</v>
+        <v>5.773700772642916E-05</v>
       </c>
       <c r="T13">
-        <v>1.789378753065164E-05</v>
+        <v>5.773700772642916E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H14">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I14">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J14">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N14">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q14">
-        <v>2534.080564899859</v>
+        <v>5320.314050696091</v>
       </c>
       <c r="R14">
-        <v>22806.72508409873</v>
+        <v>47882.82645626481</v>
       </c>
       <c r="S14">
-        <v>0.07633386321875084</v>
+        <v>0.190864312186086</v>
       </c>
       <c r="T14">
-        <v>0.07633386321875084</v>
+        <v>0.190864312186086</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H15">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I15">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J15">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N15">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q15">
-        <v>1.018088444891666</v>
+        <v>2.500786502785778</v>
       </c>
       <c r="R15">
-        <v>9.162796004024997</v>
+        <v>22.507078525072</v>
       </c>
       <c r="S15">
-        <v>3.066777953842297E-05</v>
+        <v>8.971479713984277E-05</v>
       </c>
       <c r="T15">
-        <v>3.066777953842298E-05</v>
+        <v>8.971479713984278E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H16">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I16">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J16">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N16">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O16">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P16">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q16">
-        <v>2771.893991798942</v>
+        <v>3813.355739401104</v>
       </c>
       <c r="R16">
-        <v>24947.04592619048</v>
+        <v>34320.20165460993</v>
       </c>
       <c r="S16">
-        <v>0.08349749402510384</v>
+        <v>0.1368027363396768</v>
       </c>
       <c r="T16">
-        <v>0.08349749402510385</v>
+        <v>0.1368027363396768</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H17">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I17">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J17">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N17">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O17">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P17">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q17">
-        <v>0.1041869433927778</v>
+        <v>0.1087064525144444</v>
       </c>
       <c r="R17">
-        <v>0.9376824905350001</v>
+        <v>0.97835807263</v>
       </c>
       <c r="S17">
-        <v>3.138413196597923E-06</v>
+        <v>3.899804051349984E-06</v>
       </c>
       <c r="T17">
-        <v>3.138413196597923E-06</v>
+        <v>3.899804051349985E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H18">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I18">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J18">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.093691</v>
       </c>
       <c r="O18">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P18">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q18">
-        <v>0.01150651442344444</v>
+        <v>0.01859951649977778</v>
       </c>
       <c r="R18">
-        <v>0.103558629811</v>
+        <v>0.167395648498</v>
       </c>
       <c r="S18">
-        <v>3.466096186087524E-07</v>
+        <v>6.672508220185568E-07</v>
       </c>
       <c r="T18">
-        <v>3.466096186087525E-07</v>
+        <v>6.672508220185568E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H19">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I19">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J19">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N19">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O19">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P19">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q19">
-        <v>49.08612537279889</v>
+        <v>61.48541574139866</v>
       </c>
       <c r="R19">
-        <v>441.77512835519</v>
+        <v>553.3687416725879</v>
       </c>
       <c r="S19">
-        <v>0.001478616596506574</v>
+        <v>0.002205766703456573</v>
       </c>
       <c r="T19">
-        <v>0.001478616596506574</v>
+        <v>0.002205766703456573</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H20">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I20">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J20">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N20">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O20">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P20">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q20">
-        <v>0.01972076884166666</v>
+        <v>0.02890090628844444</v>
       </c>
       <c r="R20">
-        <v>0.177486919575</v>
+        <v>0.260108156596</v>
       </c>
       <c r="S20">
-        <v>5.940468082110385E-07</v>
+        <v>1.036809396538681E-06</v>
       </c>
       <c r="T20">
-        <v>5.940468082110386E-07</v>
+        <v>1.036809396538681E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H21">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I21">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J21">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N21">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O21">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P21">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q21">
-        <v>53.69266387429466</v>
+        <v>44.06991030468378</v>
       </c>
       <c r="R21">
-        <v>483.233974868652</v>
+        <v>396.629192742154</v>
       </c>
       <c r="S21">
-        <v>0.001617378909258451</v>
+        <v>0.001580991843386663</v>
       </c>
       <c r="T21">
-        <v>0.001617378909258451</v>
+        <v>0.001580991843386663</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H22">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I22">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J22">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1798,28 +1798,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N22">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O22">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P22">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q22">
-        <v>11.00976449255056</v>
+        <v>6.852685798815555</v>
       </c>
       <c r="R22">
-        <v>99.087880432955</v>
+        <v>61.67417218934</v>
       </c>
       <c r="S22">
-        <v>0.0003316460685922294</v>
+        <v>0.0002458375857431132</v>
       </c>
       <c r="T22">
-        <v>0.0003316460685922294</v>
+        <v>0.0002458375857431133</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H23">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I23">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J23">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.093691</v>
       </c>
       <c r="O23">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P23">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q23">
-        <v>1.215929845015889</v>
+        <v>1.172484610018222</v>
       </c>
       <c r="R23">
-        <v>10.943368605143</v>
+        <v>10.552361490164</v>
       </c>
       <c r="S23">
-        <v>3.662733685687206E-05</v>
+        <v>4.206245467983605E-05</v>
       </c>
       <c r="T23">
-        <v>3.662733685687207E-05</v>
+        <v>4.206245467983605E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H24">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I24">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J24">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N24">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O24">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P24">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q24">
-        <v>5187.086429524608</v>
+        <v>3875.945038583309</v>
       </c>
       <c r="R24">
-        <v>46683.77786572147</v>
+        <v>34883.50534724978</v>
       </c>
       <c r="S24">
-        <v>0.1562501017132489</v>
+        <v>0.1390481044560679</v>
       </c>
       <c r="T24">
-        <v>0.1562501017132489</v>
+        <v>0.1390481044560679</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H25">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I25">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J25">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N25">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O25">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P25">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q25">
-        <v>2.083956141608333</v>
+        <v>1.821868210347555</v>
       </c>
       <c r="R25">
-        <v>18.75560527447499</v>
+        <v>16.396813893128</v>
       </c>
       <c r="S25">
-        <v>6.277480884815223E-05</v>
+        <v>6.535885279482439E-05</v>
       </c>
       <c r="T25">
-        <v>6.277480884815224E-05</v>
+        <v>6.53588527948244E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H26">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I26">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J26">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N26">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O26">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P26">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q26">
-        <v>5673.873951797297</v>
+        <v>2778.098645614931</v>
       </c>
       <c r="R26">
-        <v>51064.86556617568</v>
+        <v>25002.88781053437</v>
       </c>
       <c r="S26">
-        <v>0.1709135550605684</v>
+        <v>0.09966326839503323</v>
       </c>
       <c r="T26">
-        <v>0.1709135550605684</v>
+        <v>0.09966326839503323</v>
       </c>
     </row>
   </sheetData>
